--- a/stock_historical_data/1wk/SURANASOL.NS.xlsx
+++ b/stock_historical_data/1wk/SURANASOL.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SURANASOL.NS.xlsx
+++ b/stock_historical_data/1wk/SURANASOL.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SURANASOL.NS.xlsx
+++ b/stock_historical_data/1wk/SURANASOL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64133,7 +64133,7 @@
         <v>20</v>
       </c>
       <c r="O1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1137" t="n">
         <v>0</v>
@@ -64368,6 +64368,114 @@
       <c r="R1141" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>38.84999847412109</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>40.45000076293945</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>38.02000045776367</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>38.7400016784668</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>38.7400016784668</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>951706</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>39.59999847412109</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>39.93999862670898</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>38.09000015258789</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>38.09000015258789</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>712348</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SURANASOL.NS.xlsx
+++ b/stock_historical_data/1wk/SURANASOL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1829 @@
       <c r="Q1143" t="n">
         <v>1</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>39</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>38.09999847412109</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>39.59999847412109</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>952360</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>37.70000076293945</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>38.29999923706055</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>705251</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>39.4900016784668</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>43.38999938964844</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>38.31000137329102</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>43.38999938964844</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>2795439</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>43.34999847412109</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>43.34999847412109</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>38.54000091552734</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>39.31999969482422</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>3750895</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>40.4900016784668</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>40.90000152587891</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>38.06000137329102</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>38.58000183105469</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>1714974</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>38.04999923706055</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>39.90999984741211</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>1867233</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>38.90000152587891</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>34.06000137329102</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>36.47999954223633</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>2018724</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>36.90999984741211</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>40.11999893188477</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>36.63999938964844</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>37.61000061035156</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>2563272</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>38.0099983215332</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>38.63000106811523</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>36.59999847412109</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>36.86000061035156</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>1054602</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>37.18999862670898</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>43.56000137329102</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>35.65000152587891</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>43.56000137329102</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>4902282</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>43.40000152587891</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>47.43999862670898</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>39.65999984741211</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>43.68000030517578</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>7270475</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>45.40000152587891</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>46.38999938964844</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>42.02000045776367</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>44.27000045776367</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>3216812</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>56.4900016784668</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>45.70000076293945</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>56.4900016784668</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>2584087</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>59.31000137329102</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>65.37999725341797</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>57.61999893188477</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>62.11000061035156</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>1210465</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>59</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>59.90000152587891</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>53.2400016784668</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>59.31000137329102</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>2459229</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>59.4900016784668</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>55.34000015258789</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>1553444</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>51.54999923706055</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>55.06999969482422</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>1899077</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>54.90000152587891</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>57.41999816894531</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>751416</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>59.20000076293945</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>53.79999923706055</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>54.43000030517578</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>610018</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>49.41999816894531</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>569649</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>49.41999816894531</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>51.83000183105469</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>45.59999847412109</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>46.33000183105469</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>450098</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>49.4900016784668</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>48.81000137329102</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>400972</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>54.97999954223633</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>52.81000137329102</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>793209</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>53.86999893188477</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>49.97999954223633</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>417528</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>50.88000106811523</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>52.47000122070312</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>47.40000152587891</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>47.93000030517578</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>515106</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>47.54999923706055</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>45.79999923706055</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>305532</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>46.72000122070312</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>48.56999969482422</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>43.38000106811523</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>47.59999847412109</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>387369</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>46.0099983215332</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>48.40000152587891</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>41.43999862670898</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>708021</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>40.65000152587891</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>43.47999954223633</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>38.52000045776367</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>41.11999893188477</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>795943</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>43.15000152587891</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>38.54999923706055</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>38.7400016784668</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>582376</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>39.59999847412109</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>34.95999908447266</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>39.31000137329102</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>937534</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>43</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>43.29999923706055</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>37.34000015258789</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>37.81000137329102</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>693455</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>39.36999893188477</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>39.36999893188477</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>34.36999893188477</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>658570</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>34.9900016784668</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>36.65999984741211</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>32.9900016784668</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>631329</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>35.34999847412109</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>35.34999847412109</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>31.01000022888184</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>31.46999931335449</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>437789</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SURANASOL.NS.xlsx
+++ b/stock_historical_data/1wk/SURANASOL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1178"/>
+  <dimension ref="A1:R1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -64531,7 +64531,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64583,7 +64585,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64635,7 +64639,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64687,7 +64693,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64739,7 +64747,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64791,7 +64801,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64843,7 +64855,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64895,7 +64909,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64947,7 +64963,9 @@
       <c r="Q1152" t="n">
         <v>2</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64999,7 +65017,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65051,7 +65071,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65103,7 +65125,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65155,7 +65179,9 @@
       <c r="Q1156" t="n">
         <v>1</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65207,7 +65233,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65259,7 +65287,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65311,7 +65341,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65363,7 +65395,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65415,7 +65449,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65467,7 +65503,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65519,7 +65557,9 @@
       <c r="Q1163" t="n">
         <v>2</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65571,7 +65611,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65623,7 +65665,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65675,7 +65719,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65727,7 +65773,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65779,7 +65827,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65831,7 +65881,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65883,7 +65935,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65935,7 +65989,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -65987,7 +66043,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66039,7 +66097,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66091,7 +66151,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66143,7 +66205,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66195,7 +66259,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66247,7 +66313,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66299,7 +66367,477 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>31.26000022888184</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>36.43000030517578</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>28.45999908447266</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>35.7400016784668</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>1021115</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>36.63000106811523</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>36.63000106811523</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>31.59000015258789</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>32.45000076293945</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>631595</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>32.45000076293945</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>35.9900016784668</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>34.2599983215332</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>556411</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>34.93999862670898</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>36.45000076293945</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>31.70000076293945</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>32.06999969482422</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>787929</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>32.06999969482422</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>34.97000122070312</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>32.06999969482422</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>33.11999893188477</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>408554</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>27.02000045776367</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>32.5099983215332</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>444675</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>33.59999847412109</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>38.29000091552734</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>32.56999969482422</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>637077</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>35.97999954223633</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>36.47999954223633</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>33.22999954223633</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>34.27999877929688</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>1288849</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>34.7400016784668</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>32.18000030517578</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>297697</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
